--- a/analysis/ec2/1_outputs/rf_predict_20.xlsx
+++ b/analysis/ec2/1_outputs/rf_predict_20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunwookang/Desktop/research/ecig/analysis/ec2/1_outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DE029D-3960-9847-B76C-9342B64BBE86}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715225A7-8BFB-8045-B0FC-294EEC6E733C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="14160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rf_predict" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>Index</t>
   </si>
@@ -189,13 +189,22 @@
   </si>
   <si>
     <t>2702-3087</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -336,8 +345,14 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="42">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -568,6 +583,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF27FFFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,7 +753,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -747,6 +768,10 @@
     <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -792,7 +817,133 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -950,6 +1101,11 @@
               </a:scene3d>
               <a:sp3d prstMaterial="matte"/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4A9D-C14D-946D-1F54AAE78E05}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -974,6 +1130,11 @@
               </a:scene3d>
               <a:sp3d prstMaterial="matte"/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4A9D-C14D-946D-1F54AAE78E05}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -998,6 +1159,11 @@
               </a:scene3d>
               <a:sp3d prstMaterial="matte"/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4A9D-C14D-946D-1F54AAE78E05}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1150,6 +1316,11 @@
               </a:scene3d>
               <a:sp3d prstMaterial="matte"/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-4A9D-C14D-946D-1F54AAE78E05}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -2055,6 +2226,18 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{94A0DAA5-0DFA-AC41-AEC7-4A42F0502187}" name="Table1" displayName="Table1" ref="L2:N15" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="L2:N15" xr:uid="{FFC63443-0227-F949-9301-482A75A28995}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{A26BF9B1-18CC-6A47-B4C6-28F23713AF05}" name="Column1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{7703908C-5DEC-104C-A306-1B62D6D26F67}" name="Column2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{3DBFE756-F7C1-844C-A917-DBEF871FD7D4}" name="Column3" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2352,15 +2535,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2379,8 +2562,13 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2399,8 +2587,19 @@
       <c r="F2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="K2" s="14"/>
+      <c r="L2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2419,8 +2618,19 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="K3" s="14"/>
+      <c r="L3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2439,8 +2649,19 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="K4" s="14"/>
+      <c r="L4" s="15">
+        <v>1</v>
+      </c>
+      <c r="M4" s="15">
+        <v>2</v>
+      </c>
+      <c r="N4" s="15">
+        <v>1</v>
+      </c>
+      <c r="O4" s="14"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2459,8 +2680,19 @@
       <c r="F5">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="K5" s="14"/>
+      <c r="L5" s="15">
+        <v>2</v>
+      </c>
+      <c r="M5" s="15">
+        <v>2</v>
+      </c>
+      <c r="N5" s="15">
+        <v>2</v>
+      </c>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2479,8 +2711,19 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="K6" s="14"/>
+      <c r="L6" s="15">
+        <v>3</v>
+      </c>
+      <c r="M6" s="15">
+        <v>3</v>
+      </c>
+      <c r="N6" s="15">
+        <v>3</v>
+      </c>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2499,8 +2742,19 @@
       <c r="F7">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="K7" s="14"/>
+      <c r="L7" s="15">
+        <v>4</v>
+      </c>
+      <c r="M7" s="15">
+        <v>1</v>
+      </c>
+      <c r="N7" s="15">
+        <v>1</v>
+      </c>
+      <c r="O7" s="14"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2519,8 +2773,19 @@
       <c r="F8">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="K8" s="14"/>
+      <c r="L8" s="15">
+        <v>5</v>
+      </c>
+      <c r="M8" s="15">
+        <v>2</v>
+      </c>
+      <c r="N8" s="15">
+        <v>2</v>
+      </c>
+      <c r="O8" s="14"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2539,8 +2804,19 @@
       <c r="F9">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="K9" s="14"/>
+      <c r="L9" s="15">
+        <v>6</v>
+      </c>
+      <c r="M9" s="15">
+        <v>3</v>
+      </c>
+      <c r="N9" s="15">
+        <v>3</v>
+      </c>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2559,8 +2835,19 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="K10" s="14"/>
+      <c r="L10" s="15">
+        <v>7</v>
+      </c>
+      <c r="M10" s="15">
+        <v>1</v>
+      </c>
+      <c r="N10" s="15">
+        <v>1</v>
+      </c>
+      <c r="O10" s="14"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2579,8 +2866,19 @@
       <c r="F11">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="K11" s="14"/>
+      <c r="L11" s="15">
+        <v>8</v>
+      </c>
+      <c r="M11" s="15">
+        <v>2</v>
+      </c>
+      <c r="N11" s="15">
+        <v>2</v>
+      </c>
+      <c r="O11" s="14"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2599,8 +2897,19 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="K12" s="14"/>
+      <c r="L12" s="15">
+        <v>9</v>
+      </c>
+      <c r="M12" s="15">
+        <v>3</v>
+      </c>
+      <c r="N12" s="15">
+        <v>3</v>
+      </c>
+      <c r="O12" s="14"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2619,8 +2928,52 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="K13" s="14"/>
+      <c r="L13" s="15">
+        <v>10</v>
+      </c>
+      <c r="M13" s="15">
+        <v>1</v>
+      </c>
+      <c r="N13" s="15">
+        <v>1</v>
+      </c>
+      <c r="O13" s="14"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="K14" s="14"/>
+      <c r="L14" s="15">
+        <v>11</v>
+      </c>
+      <c r="M14" s="15">
+        <v>2</v>
+      </c>
+      <c r="N14" s="15">
+        <v>2</v>
+      </c>
+      <c r="O14" s="14"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="K15" s="14"/>
+      <c r="L15" s="15">
+        <v>12</v>
+      </c>
+      <c r="M15" s="15">
+        <v>3</v>
+      </c>
+      <c r="N15" s="15">
+        <v>3</v>
+      </c>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="9" t="s">
         <v>6</v>
       </c>
@@ -2635,8 +2988,13 @@
       <c r="G17" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="9" t="s">
         <v>7</v>
       </c>
@@ -2652,7 +3010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:15">
       <c r="A19" s="9" t="s">
         <v>8</v>
       </c>
@@ -2668,7 +3026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:15">
       <c r="A20" s="9" t="s">
         <v>9</v>
       </c>
@@ -2684,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:15">
       <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
@@ -2700,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:15">
       <c r="A22" s="9" t="s">
         <v>11</v>
       </c>
@@ -2716,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:15">
       <c r="A23" s="9" t="s">
         <v>12</v>
       </c>
@@ -2732,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:15">
       <c r="A24" s="9" t="s">
         <v>13</v>
       </c>
@@ -2748,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:15">
       <c r="A25" s="9" t="s">
         <v>14</v>
       </c>
@@ -2759,49 +3117,49 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:15">
       <c r="A26" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:15">
       <c r="A27" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:15">
       <c r="A28" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:15">
       <c r="A29" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:15">
       <c r="A30" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:15">
       <c r="A31" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:15">
       <c r="A32" s="10" t="s">
         <v>21</v>
       </c>
@@ -2938,6 +3296,9 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2945,7 +3306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B41814-6699-4F41-A48D-AA670B8CFA23}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
